--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/78/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/78/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01401401401401401</v>
+        <v>0.840984098409841</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.1941941941942</v>
+        <v>995.5595559555956</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05255255255255255</v>
+        <v>0.02643264326432643</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05105105105105105</v>
+        <v>0.38993899389939</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393.393393393394</v>
+        <v>1449.514951495149</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.5525525525526</v>
+        <v>737.083708370837</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589.5895895895897</v>
+        <v>109.3024302430243</v>
       </c>
     </row>
   </sheetData>
